--- a/data/georgia_census/adjara/qeda/age_dependency.xlsx
+++ b/data/georgia_census/adjara/qeda/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427F6109-0B90-4E45-B4D0-1EAD8B25B35D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FCC979D-14A7-4073-9FC1-9C3969F59C5E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A8D1294-339E-4606-8B97-CB3D23DC7E1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E8ADBB-EB23-45E3-B55D-F58E9EE1A939}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA83EA92-B286-487B-83DB-F57C90EFCC19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD32D5BB-B3BC-403D-9566-0C791B81F892}"/>
 </file>